--- a/Customers/NextGen/TestSuite1Data.xlsx
+++ b/Customers/NextGen/TestSuite1Data.xlsx
@@ -4,14 +4,18 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="20040" windowHeight="6225" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="20040" windowHeight="6225" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="TC01" sheetId="2" r:id="rId1"/>
-    <sheet name="TC03" sheetId="6" r:id="rId2"/>
-    <sheet name="TC04" sheetId="7" r:id="rId3"/>
-    <sheet name="TC05" sheetId="4" r:id="rId4"/>
-    <sheet name="TC02" sheetId="8" r:id="rId5"/>
+    <sheet name="TC02" sheetId="8" r:id="rId2"/>
+    <sheet name="TC03" sheetId="6" r:id="rId3"/>
+    <sheet name="TC04" sheetId="9" r:id="rId4"/>
+    <sheet name="TC05" sheetId="10" r:id="rId5"/>
+    <sheet name="TC06" sheetId="11" r:id="rId6"/>
+    <sheet name="TC07" sheetId="12" r:id="rId7"/>
+    <sheet name="TC041" sheetId="7" r:id="rId8"/>
+    <sheet name="TC051" sheetId="4" r:id="rId9"/>
   </sheets>
   <calcPr calcId="125725"/>
   <extLst>
@@ -26,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="108">
   <si>
     <t>password</t>
   </si>
@@ -91,15 +95,6 @@
     <t>Charges/Payments/Adjustments summary</t>
   </si>
   <si>
-    <t>BillingStatusTitle</t>
-  </si>
-  <si>
-    <t>BillingStatusInfoText</t>
-  </si>
-  <si>
-    <t>Daily billing status</t>
-  </si>
-  <si>
     <t>DailyVisitsBillsTitle</t>
   </si>
   <si>
@@ -121,36 +116,18 @@
     <t>BillingBacklogTitle</t>
   </si>
   <si>
-    <t>Daily billing backlog</t>
-  </si>
-  <si>
     <t>BillingBacklogInfoText</t>
   </si>
   <si>
     <t>Review the billing process preformance. Look for trends above or below average.</t>
   </si>
   <si>
-    <t>DailyUnsignedTitle</t>
-  </si>
-  <si>
-    <t>DailyUnsignedInfoText</t>
-  </si>
-  <si>
-    <t>Daily unsigned</t>
-  </si>
-  <si>
-    <t>Displays various available billing status. Daily backlog (bills to be submitted / resubmitted), bills created( specific day), On hold (due to missing information etc.), pending signoff by provider and bills submitted on a day. Helps manage the backlog. Look for trends above or below average</t>
-  </si>
-  <si>
     <t>Visit represents the patient encounters and bills refers to claims related to visits. Volume trend is key indicator to manage the utilization and billing process productivity. Review the variances to optimize.</t>
   </si>
   <si>
     <t>Average Day difference between Date of Service and Bill Submitted. Review the lag process to drive improvement effort.</t>
   </si>
   <si>
-    <t>Review the process hold up. Follow up if the unsigned bills are increasing above the acceptable level.</t>
-  </si>
-  <si>
     <t>NextGen\Nagendra</t>
   </si>
   <si>
@@ -170,6 +147,213 @@
   </si>
   <si>
     <t>Jordan Valley</t>
+  </si>
+  <si>
+    <t>Daily pending bills</t>
+  </si>
+  <si>
+    <t>Payment % = sum of 6 months payments *100/ (sum of 6 months charges – sum of 6 months not charges)+ sum of 6 months payments. Focus on the variances and identify the root causes by reviewing the CPT counts and A/R related metrics. Higher % is better as it indicates lower A/R and lower rejection of claims.</t>
+  </si>
+  <si>
+    <t>PaymentpercentageInfoText</t>
+  </si>
+  <si>
+    <t>PaymentpercentageTitle</t>
+  </si>
+  <si>
+    <t>Payment %</t>
+  </si>
+  <si>
+    <t>CPARInfoText</t>
+  </si>
+  <si>
+    <t>CPARTitle</t>
+  </si>
+  <si>
+    <t>Charges/Payments/Adjustments/Refunds summary</t>
+  </si>
+  <si>
+    <t>CPTBySpecialityTitle</t>
+  </si>
+  <si>
+    <t>CPTBySpecialityInfoText</t>
+  </si>
+  <si>
+    <t>Procedure codes (CPT) volume by speciality</t>
+  </si>
+  <si>
+    <t>Volume of procedure codes by speciality provides insight to revenue and operations improvement opportunities.</t>
+  </si>
+  <si>
+    <t>ARindaysTitle</t>
+  </si>
+  <si>
+    <t>ARindaysInfoText</t>
+  </si>
+  <si>
+    <t>RollingARTitle</t>
+  </si>
+  <si>
+    <t>RollingARInfoText</t>
+  </si>
+  <si>
+    <t>ARagingTitle</t>
+  </si>
+  <si>
+    <t>ARagingInfoText</t>
+  </si>
+  <si>
+    <t>PaymentlagTitle</t>
+  </si>
+  <si>
+    <t>PaymentlagInfoText</t>
+  </si>
+  <si>
+    <t>Calculates days in A/R as the total A/R, divided by gross charges average of 6 months. Lower A/R days trend is critical for business. Reduction in bill creation lag, submission lag and improvement in claim completness and coding accuracy will help reduce days in A/R.</t>
+  </si>
+  <si>
+    <t>Days in A/R</t>
+  </si>
+  <si>
+    <t>Rolling A/R</t>
+  </si>
+  <si>
+    <t>Amount of A/R in a month is previous months A/R plus charges minus non charges. Reducing A/R amount indicates improved billing process (assuming a business growing). Billing process metrics like bill creation lag, submission lag, claim completeness and coding accuracey will help reduce the amount in A/R</t>
+  </si>
+  <si>
+    <t>A/R aging</t>
+  </si>
+  <si>
+    <t>Days interval includes the charges of unpaid claims from the selected month. Higher A/R in 0-30 days is a good indicator and AR in other intervals need to have process to reduce.</t>
+  </si>
+  <si>
+    <t>Payment lag</t>
+  </si>
+  <si>
+    <t>It is sum of bill Lag (DOS to claim created), submit lag (claim created to claim submitted), approved lag(claim submitted to claim approved), payment lag (claim approved to payment) and post lag(payment to payment posting). Lower lag times are better to reduce A/R. Helps identifying the rootcause for the cycle time variances.</t>
+  </si>
+  <si>
+    <t>DenialsValueandVolumeTitle</t>
+  </si>
+  <si>
+    <t>DenialsValueandVolumeInfoText</t>
+  </si>
+  <si>
+    <t>GrossDenialValueandVolumeTitle</t>
+  </si>
+  <si>
+    <t>GrossDenialValueandVolumeInfoText</t>
+  </si>
+  <si>
+    <t>GrossremittancevalueTitle</t>
+  </si>
+  <si>
+    <t>GrossremittancevalueInfoText</t>
+  </si>
+  <si>
+    <t>GrossremittancevolumeTitle</t>
+  </si>
+  <si>
+    <t>GrossremittancevolumeInfoText</t>
+  </si>
+  <si>
+    <t>Denials value and volume</t>
+  </si>
+  <si>
+    <t>Gross denials value and volume</t>
+  </si>
+  <si>
+    <t>Gross remittance value</t>
+  </si>
+  <si>
+    <t>Gross remittance volume</t>
+  </si>
+  <si>
+    <t>BillssubmittedtopayerTitle</t>
+  </si>
+  <si>
+    <t>BillssubmittedtopayerInfoText</t>
+  </si>
+  <si>
+    <t>CollectionsbypayerTitle</t>
+  </si>
+  <si>
+    <t>CollectionsbypayerInfoText</t>
+  </si>
+  <si>
+    <t>E&amp;MNewTitle</t>
+  </si>
+  <si>
+    <t>E&amp;MNewInfoText</t>
+  </si>
+  <si>
+    <t>E&amp;MEstablishedTitle</t>
+  </si>
+  <si>
+    <t>E&amp;MEstablishedInfoText</t>
+  </si>
+  <si>
+    <t>E&amp;MNewPercentageTitle</t>
+  </si>
+  <si>
+    <t>E&amp;MNewPercentageInfoText</t>
+  </si>
+  <si>
+    <t>E&amp;MExistingPercentageTitle</t>
+  </si>
+  <si>
+    <t>E&amp;MExistingPercentageInfoText</t>
+  </si>
+  <si>
+    <t>BilledVisitsTitle</t>
+  </si>
+  <si>
+    <t>BilledVisitsInfoText</t>
+  </si>
+  <si>
+    <t>Count of bills submitted to the insurance group</t>
+  </si>
+  <si>
+    <t>Bills submitted to payer</t>
+  </si>
+  <si>
+    <t>Collections by payer</t>
+  </si>
+  <si>
+    <t>Sum of payments by top 10 insurance carrier filtered by provider</t>
+  </si>
+  <si>
+    <t>E&amp;M new</t>
+  </si>
+  <si>
+    <t>Evaluation and management (E&amp;M) codes for new patient office or other outpatient visits. Coding erros results in delayed payment, under payment and even audits.</t>
+  </si>
+  <si>
+    <t>E&amp;M established</t>
+  </si>
+  <si>
+    <t>Evaluation and management (E&amp;M) codes for established patient office or other outpatient visits. Coding erros results in delayed payment, under payment and even audits.</t>
+  </si>
+  <si>
+    <t>E&amp;M new %</t>
+  </si>
+  <si>
+    <t>% of evaluation and management (E&amp;M) codes for new patient office or other outpatient visits. Coding erros results in delayed payment, under payment and even audits.</t>
+  </si>
+  <si>
+    <t>E&amp;M established %</t>
+  </si>
+  <si>
+    <t>% of evaluation and management (E&amp;M) codes for established patient office or other outpatient visits. Coding erros results in delayed payment, under payment and even audits.</t>
+  </si>
+  <si>
+    <t>Billed visits by insurance group</t>
+  </si>
+  <si>
+    <t>Provides the payerclass and insurance group volume. This gives an insight to potential revenue stream along with insight to manage payer contracts.</t>
+  </si>
+  <si>
+    <t>Test</t>
   </si>
 </sst>
 </file>
@@ -226,10 +410,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -561,10 +746,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C2">
         <v>10</v>
@@ -577,213 +762,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="13.5703125" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" customWidth="1"/>
-    <col min="3" max="3" width="36.42578125" customWidth="1"/>
-    <col min="4" max="4" width="22.5703125" customWidth="1"/>
-    <col min="5" max="5" width="19.42578125" customWidth="1"/>
-    <col min="6" max="6" width="24.28515625" customWidth="1"/>
-    <col min="7" max="7" width="20.85546875" customWidth="1"/>
-    <col min="8" max="8" width="21.85546875" customWidth="1"/>
-    <col min="9" max="9" width="20.85546875" customWidth="1"/>
-    <col min="10" max="10" width="22.140625" customWidth="1"/>
-    <col min="11" max="11" width="19.7109375" customWidth="1"/>
-    <col min="12" max="12" width="21.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" t="s">
-        <v>39</v>
-      </c>
-      <c r="I2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K2" t="s">
-        <v>36</v>
-      </c>
-      <c r="L2" t="s">
-        <v>40</v>
-      </c>
-      <c r="M2">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="15.140625" customWidth="1"/>
-    <col min="2" max="2" width="21.5703125" customWidth="1"/>
-    <col min="3" max="3" width="28.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="15.5703125" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" customWidth="1"/>
-    <col min="3" max="3" width="65.140625" customWidth="1"/>
-    <col min="4" max="4" width="38.85546875" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D1" sqref="D1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -805,7 +787,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>14</v>
@@ -832,21 +814,21 @@
         <v>9</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C2">
         <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="E2" t="s">
         <v>3</v>
@@ -878,16 +860,16 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C3">
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="E3" t="s">
         <v>3</v>
@@ -919,16 +901,16 @@
     </row>
     <row r="4" spans="1:13">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C4">
         <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="E4" t="s">
         <v>3</v>
@@ -956,6 +938,639 @@
       </c>
       <c r="M4">
         <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:J2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.5703125" customWidth="1"/>
+    <col min="2" max="3" width="15.5703125" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" customWidth="1"/>
+    <col min="5" max="5" width="24.28515625" customWidth="1"/>
+    <col min="6" max="6" width="20.85546875" customWidth="1"/>
+    <col min="7" max="7" width="21.85546875" customWidth="1"/>
+    <col min="8" max="8" width="20.85546875" customWidth="1"/>
+    <col min="9" max="9" width="22.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="19.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="35.85546875" customWidth="1"/>
+    <col min="5" max="6" width="13.140625" customWidth="1"/>
+    <col min="7" max="7" width="27.7109375" customWidth="1"/>
+    <col min="8" max="8" width="30" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" customWidth="1"/>
+    <col min="10" max="10" width="27" customWidth="1"/>
+    <col min="11" max="11" width="28.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I2">
+        <v>10</v>
+      </c>
+      <c r="J2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="L2">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:L2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="22.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" customWidth="1"/>
+    <col min="6" max="6" width="15" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" customWidth="1"/>
+    <col min="9" max="9" width="19.140625" customWidth="1"/>
+    <col min="10" max="10" width="16.5703125" customWidth="1"/>
+    <col min="11" max="11" width="20.42578125" customWidth="1"/>
+    <col min="12" max="12" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="H2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="L2">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="4" max="4" width="29.42578125" customWidth="1"/>
+    <col min="5" max="5" width="32.42578125" customWidth="1"/>
+    <col min="6" max="6" width="33.140625" customWidth="1"/>
+    <col min="7" max="7" width="37" customWidth="1"/>
+    <col min="8" max="8" width="30.140625" customWidth="1"/>
+    <col min="9" max="9" width="30.85546875" customWidth="1"/>
+    <col min="10" max="10" width="29.140625" customWidth="1"/>
+    <col min="11" max="11" width="31.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="H2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="J2" t="s">
+        <v>78</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="L2">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:R2"/>
+  <sheetViews>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="4" max="4" width="30.140625" customWidth="1"/>
+    <col min="5" max="5" width="30.85546875" customWidth="1"/>
+    <col min="6" max="6" width="33.7109375" customWidth="1"/>
+    <col min="7" max="7" width="36.85546875" customWidth="1"/>
+    <col min="8" max="8" width="31.85546875" customWidth="1"/>
+    <col min="9" max="9" width="28.5703125" customWidth="1"/>
+    <col min="10" max="10" width="34.85546875" customWidth="1"/>
+    <col min="11" max="17" width="32.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="H2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="J2" t="s">
+        <v>99</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="R2">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="15.140625" customWidth="1"/>
+    <col min="2" max="2" width="21.5703125" customWidth="1"/>
+    <col min="3" max="3" width="28.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="22" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" customWidth="1"/>
+    <col min="3" max="3" width="65.140625" customWidth="1"/>
+    <col min="4" max="4" width="38.85546875" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Customers/NextGen/TestSuite1Data.xlsx
+++ b/Customers/NextGen/TestSuite1Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="20040" windowHeight="6225" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="20040" windowHeight="6225" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="TC01" sheetId="2" r:id="rId1"/>
@@ -14,8 +14,12 @@
     <sheet name="TC05" sheetId="10" r:id="rId5"/>
     <sheet name="TC06" sheetId="11" r:id="rId6"/>
     <sheet name="TC07" sheetId="12" r:id="rId7"/>
-    <sheet name="TC041" sheetId="7" r:id="rId8"/>
+    <sheet name="TC08" sheetId="7" r:id="rId8"/>
     <sheet name="TC051" sheetId="4" r:id="rId9"/>
+    <sheet name="TC09" sheetId="14" r:id="rId10"/>
+    <sheet name="TC10" sheetId="15" r:id="rId11"/>
+    <sheet name="TC11" sheetId="16" r:id="rId12"/>
+    <sheet name="TC12" sheetId="17" r:id="rId13"/>
   </sheets>
   <calcPr calcId="125725"/>
   <extLst>
@@ -30,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="124">
   <si>
     <t>password</t>
   </si>
@@ -354,6 +358,54 @@
   </si>
   <si>
     <t>Test</t>
+  </si>
+  <si>
+    <t>ChangeStatus</t>
+  </si>
+  <si>
+    <t>password changed successfully</t>
+  </si>
+  <si>
+    <t>NewPassword</t>
+  </si>
+  <si>
+    <t>Test1</t>
+  </si>
+  <si>
+    <t>RunAsLabel</t>
+  </si>
+  <si>
+    <t>aaron.rucker@uthsc.edu</t>
+  </si>
+  <si>
+    <t>CWC\Admin</t>
+  </si>
+  <si>
+    <t>JORDAN\User</t>
+  </si>
+  <si>
+    <t>NotAnumber</t>
+  </si>
+  <si>
+    <t>NaN</t>
+  </si>
+  <si>
+    <t>Practices</t>
+  </si>
+  <si>
+    <t>University Of Tennessee,UT Medical Group, Inc.</t>
+  </si>
+  <si>
+    <t>AppliedFilterTitle</t>
+  </si>
+  <si>
+    <t>SavedFilterTitle</t>
+  </si>
+  <si>
+    <t>Applied Filter</t>
+  </si>
+  <si>
+    <t>Saved Filter</t>
   </si>
 </sst>
 </file>
@@ -760,12 +812,226 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="24.28515625" customWidth="1"/>
+    <col min="2" max="4" width="30.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="3" width="30.7109375" customWidth="1"/>
+    <col min="4" max="6" width="42.85546875" customWidth="1"/>
+    <col min="7" max="7" width="30.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G2">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="4" width="30.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D2"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -773,10 +1039,11 @@
     <col min="1" max="1" width="20.140625" customWidth="1"/>
     <col min="2" max="2" width="13.140625" customWidth="1"/>
     <col min="4" max="4" width="13.28515625" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" customWidth="1"/>
+    <col min="5" max="5" width="25.85546875" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -790,34 +1057,37 @@
         <v>34</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
         <v>32</v>
       </c>
@@ -831,34 +1101,37 @@
         <v>35</v>
       </c>
       <c r="E2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>4</v>
       </c>
-      <c r="G2">
-        <v>10</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="H2">
+        <v>10</v>
+      </c>
+      <c r="I2" t="s">
         <v>16</v>
       </c>
-      <c r="I2" t="s">
-        <v>10</v>
-      </c>
       <c r="J2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" t="s">
         <v>11</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>12</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>13</v>
       </c>
-      <c r="M2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -872,34 +1145,37 @@
         <v>36</v>
       </c>
       <c r="E3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F3" t="s">
         <v>3</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>4</v>
       </c>
-      <c r="G3">
-        <v>10</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="H3">
+        <v>10</v>
+      </c>
+      <c r="I3" t="s">
         <v>16</v>
       </c>
-      <c r="I3" t="s">
-        <v>10</v>
-      </c>
       <c r="J3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" t="s">
         <v>11</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>12</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>13</v>
       </c>
-      <c r="M3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
         <v>32</v>
       </c>
@@ -913,30 +1189,33 @@
         <v>38</v>
       </c>
       <c r="E4" t="s">
+        <v>115</v>
+      </c>
+      <c r="F4" t="s">
         <v>3</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>4</v>
       </c>
-      <c r="G4">
-        <v>10</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="H4">
+        <v>10</v>
+      </c>
+      <c r="I4" t="s">
         <v>16</v>
       </c>
-      <c r="I4" t="s">
-        <v>10</v>
-      </c>
       <c r="J4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" t="s">
         <v>11</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>12</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>13</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>10</v>
       </c>
     </row>
@@ -950,7 +1229,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J2"/>
+      <selection sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1484,7 +1763,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>

--- a/Customers/NextGen/TestSuite1Data.xlsx
+++ b/Customers/NextGen/TestSuite1Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="20040" windowHeight="6225" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="20040" windowHeight="6225" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="TC01" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="128">
   <si>
     <t>password</t>
   </si>
@@ -123,9 +123,6 @@
     <t>BillingBacklogInfoText</t>
   </si>
   <si>
-    <t>Review the billing process preformance. Look for trends above or below average.</t>
-  </si>
-  <si>
     <t>Visit represents the patient encounters and bills refers to claims related to visits. Volume trend is key indicator to manage the utilization and billing process productivity. Review the variances to optimize.</t>
   </si>
   <si>
@@ -213,9 +210,6 @@
     <t>PaymentlagInfoText</t>
   </si>
   <si>
-    <t>Calculates days in A/R as the total A/R, divided by gross charges average of 6 months. Lower A/R days trend is critical for business. Reduction in bill creation lag, submission lag and improvement in claim completness and coding accuracy will help reduce days in A/R.</t>
-  </si>
-  <si>
     <t>Days in A/R</t>
   </si>
   <si>
@@ -234,9 +228,6 @@
     <t>Payment lag</t>
   </si>
   <si>
-    <t>It is sum of bill Lag (DOS to claim created), submit lag (claim created to claim submitted), approved lag(claim submitted to claim approved), payment lag (claim approved to payment) and post lag(payment to payment posting). Lower lag times are better to reduce A/R. Helps identifying the rootcause for the cycle time variances.</t>
-  </si>
-  <si>
     <t>DenialsValueandVolumeTitle</t>
   </si>
   <si>
@@ -324,9 +315,6 @@
     <t>Collections by payer</t>
   </si>
   <si>
-    <t>Sum of payments by top 10 insurance carrier filtered by provider</t>
-  </si>
-  <si>
     <t>E&amp;M new</t>
   </si>
   <si>
@@ -406,6 +394,30 @@
   </si>
   <si>
     <t>Saved Filter</t>
+  </si>
+  <si>
+    <t>Count of unique bills or claims created, submitted and with pending staus. Review the billing process preformance. Look for trends above or below average.</t>
+  </si>
+  <si>
+    <t>Calculates days in A/R as the total A/R, divided by gross charges average of 90 days. Lower A/R days trend is critical for business. Reduction in bill creation lag, submission lag and improvement in claim completness and coding accuracy will help reduce days in A/R.</t>
+  </si>
+  <si>
+    <t>It is sum of bill Lag (DOS to claim created), submit lag (claim submitted to bill date), payment lag (bill submission to payment post date) and post lag( 1st payment to post date). Lower lag times are better to reduce A/R. Helps identifying the rootcause for the cycle time variances.</t>
+  </si>
+  <si>
+    <t>Total denied amount and count in the first rejected claim transactions. Lower percentage is better for the revenue process. Identify the root causes to improve the performance.</t>
+  </si>
+  <si>
+    <t>Total denied amount and count in the all rejected claim transactions. A claim could be rejected mutiple times and its not a unique count. Lower percentage is better for the revenue process. Identify the root causes to improve the performance.</t>
+  </si>
+  <si>
+    <t>Displays the gross denied amount i.e., amount denied in all claim rejections (not just 1st rejection). Displays for denials, contractual, info and patient responsibility.</t>
+  </si>
+  <si>
+    <t>Displays the gross denied count i.e., counts denied in all claim rejections (not just 1st rejection). Displays for denials, contractual, info and patient responsibility.</t>
+  </si>
+  <si>
+    <t>Total sum of payments by payers</t>
   </si>
 </sst>
 </file>
@@ -798,10 +810,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s">
         <v>32</v>
-      </c>
-      <c r="B2" t="s">
-        <v>33</v>
       </c>
       <c r="C2">
         <v>10</v>
@@ -833,27 +845,27 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
         <v>107</v>
       </c>
-      <c r="C2">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>111</v>
-      </c>
       <c r="E2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -883,27 +895,27 @@
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s">
         <v>32</v>
       </c>
-      <c r="B2" t="s">
-        <v>33</v>
-      </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E2">
         <v>10</v>
@@ -918,7 +930,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -937,39 +949,39 @@
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s">
         <v>32</v>
       </c>
-      <c r="B2" t="s">
-        <v>33</v>
-      </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F2" t="s">
         <v>119</v>
-      </c>
-      <c r="E2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F2" t="s">
-        <v>123</v>
       </c>
       <c r="G2">
         <v>10</v>
@@ -1001,21 +1013,21 @@
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s">
         <v>32</v>
       </c>
-      <c r="B2" t="s">
-        <v>33</v>
-      </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D2">
         <v>10</v>
@@ -1054,10 +1066,10 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>14</v>
@@ -1084,24 +1096,24 @@
         <v>9</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s">
         <v>32</v>
-      </c>
-      <c r="B2" t="s">
-        <v>33</v>
       </c>
       <c r="C2">
         <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F2" t="s">
         <v>3</v>
@@ -1133,19 +1145,19 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" t="s">
         <v>32</v>
-      </c>
-      <c r="B3" t="s">
-        <v>33</v>
       </c>
       <c r="C3">
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E3" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -1177,19 +1189,19 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s">
         <v>32</v>
-      </c>
-      <c r="B4" t="s">
-        <v>33</v>
       </c>
       <c r="C4">
         <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E4" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F4" t="s">
         <v>3</v>
@@ -1229,7 +1241,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D2"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1252,7 +1264,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>21</v>
@@ -1278,31 +1290,31 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s">
         <v>32</v>
       </c>
-      <c r="B2" t="s">
-        <v>33</v>
-      </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D2" t="s">
         <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F2" t="s">
         <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I2" t="s">
-        <v>29</v>
+        <v>120</v>
       </c>
       <c r="J2">
         <v>10</v>
@@ -1342,31 +1354,31 @@
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>48</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>1</v>
@@ -1374,16 +1386,16 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s">
         <v>32</v>
       </c>
-      <c r="B2" t="s">
-        <v>33</v>
-      </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E2" t="s">
         <v>19</v>
@@ -1392,19 +1404,19 @@
         <v>10</v>
       </c>
       <c r="G2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H2" t="s">
         <v>49</v>
       </c>
-      <c r="H2" t="s">
-        <v>50</v>
-      </c>
       <c r="I2">
         <v>10</v>
       </c>
       <c r="J2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L2">
         <v>10</v>
@@ -1420,7 +1432,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:L2"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1446,31 +1458,31 @@
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>58</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>1</v>
@@ -1478,37 +1490,37 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s">
         <v>32</v>
       </c>
-      <c r="B2" t="s">
-        <v>33</v>
-      </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="F2" s="4" t="s">
+      <c r="H2" t="s">
         <v>61</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>63</v>
       </c>
-      <c r="I2" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="J2" t="s">
-        <v>65</v>
-      </c>
       <c r="K2" s="4" t="s">
-        <v>66</v>
+        <v>122</v>
       </c>
       <c r="L2">
         <v>10</v>
@@ -1523,7 +1535,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1547,31 +1561,31 @@
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="K1" s="3" t="s">
         <v>71</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>74</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>1</v>
@@ -1579,37 +1593,37 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s">
         <v>32</v>
       </c>
-      <c r="B2" t="s">
-        <v>33</v>
-      </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="H2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="J2" t="s">
         <v>75</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="H2" t="s">
-        <v>77</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="J2" t="s">
-        <v>78</v>
-      </c>
       <c r="K2" s="4" t="s">
-        <v>78</v>
+        <v>126</v>
       </c>
       <c r="L2">
         <v>10</v>
@@ -1624,8 +1638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1650,49 +1664,49 @@
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="K1" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="M1" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>89</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>92</v>
       </c>
       <c r="R1" s="2" t="s">
         <v>1</v>
@@ -1700,55 +1714,55 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s">
         <v>32</v>
       </c>
-      <c r="B2" t="s">
-        <v>33</v>
-      </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="H2" t="s">
+        <v>93</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="F2" s="4" t="s">
+      <c r="J2" t="s">
         <v>95</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="K2" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="H2" t="s">
+      <c r="L2" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="M2" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="J2" t="s">
+      <c r="N2" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="O2" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="P2" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="Q2" s="4" t="s">
         <v>102</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>106</v>
       </c>
       <c r="R2">
         <v>10</v>
@@ -1785,21 +1799,21 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C2">
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1840,10 +1854,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s">
         <v>32</v>
-      </c>
-      <c r="B2" t="s">
-        <v>33</v>
       </c>
       <c r="C2" t="s">
         <v>20</v>

--- a/Customers/NextGen/TestSuite1Data.xlsx
+++ b/Customers/NextGen/TestSuite1Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="20040" windowHeight="6225" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="20040" windowHeight="6225" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="TC01" sheetId="2" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="TC10" sheetId="15" r:id="rId11"/>
     <sheet name="TC11" sheetId="16" r:id="rId12"/>
     <sheet name="TC12" sheetId="17" r:id="rId13"/>
+    <sheet name="Sheet1" sheetId="18" r:id="rId14"/>
   </sheets>
   <calcPr calcId="125725"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="130">
   <si>
     <t>password</t>
   </si>
@@ -390,12 +391,6 @@
     <t>SavedFilterTitle</t>
   </si>
   <si>
-    <t>Applied Filter</t>
-  </si>
-  <si>
-    <t>Saved Filter</t>
-  </si>
-  <si>
     <t>Count of unique bills or claims created, submitted and with pending staus. Review the billing process preformance. Look for trends above or below average.</t>
   </si>
   <si>
@@ -418,6 +413,18 @@
   </si>
   <si>
     <t>Total sum of payments by payers</t>
+  </si>
+  <si>
+    <t>Applied Filters</t>
+  </si>
+  <si>
+    <t>Saved Filters</t>
+  </si>
+  <si>
+    <t>WidgetNames</t>
+  </si>
+  <si>
+    <t>Daily visits and bills created,Bill and submission lag</t>
   </si>
 </sst>
 </file>
@@ -931,7 +938,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -978,10 +985,10 @@
         <v>115</v>
       </c>
       <c r="E2" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="F2" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="G2">
         <v>10</v>
@@ -997,7 +1004,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1031,6 +1038,59 @@
       </c>
       <c r="D2">
         <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="4" width="30.7109375" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -1314,7 +1374,7 @@
         <v>38</v>
       </c>
       <c r="I2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="J2">
         <v>10</v>
@@ -1502,7 +1562,7 @@
         <v>58</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>59</v>
@@ -1520,7 +1580,7 @@
         <v>63</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="L2">
         <v>10</v>
@@ -1605,25 +1665,25 @@
         <v>72</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>73</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H2" t="s">
         <v>74</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J2" t="s">
         <v>75</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="L2">
         <v>10</v>
@@ -1638,7 +1698,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
@@ -1732,7 +1792,7 @@
         <v>92</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H2" t="s">
         <v>93</v>

--- a/Customers/NextGen/TestSuite1Data.xlsx
+++ b/Customers/NextGen/TestSuite1Data.xlsx
@@ -20,7 +20,7 @@
     <sheet name="TC10" sheetId="15" r:id="rId11"/>
     <sheet name="TC11" sheetId="16" r:id="rId12"/>
     <sheet name="TC12" sheetId="17" r:id="rId13"/>
-    <sheet name="Sheet1" sheetId="18" r:id="rId14"/>
+    <sheet name="TC13" sheetId="18" r:id="rId14"/>
   </sheets>
   <calcPr calcId="125725"/>
   <extLst>

--- a/Customers/NextGen/TestSuite1Data.xlsx
+++ b/Customers/NextGen/TestSuite1Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="20040" windowHeight="6225" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="20040" windowHeight="6225" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="TC01" sheetId="2" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="TC11" sheetId="16" r:id="rId12"/>
     <sheet name="TC12" sheetId="17" r:id="rId13"/>
     <sheet name="TC13" sheetId="18" r:id="rId14"/>
+    <sheet name="TC14" sheetId="19" r:id="rId15"/>
   </sheets>
   <calcPr calcId="125725"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="131">
   <si>
     <t>password</t>
   </si>
@@ -425,6 +426,9 @@
   </si>
   <si>
     <t>Daily visits and bills created,Bill and submission lag</t>
+  </si>
+  <si>
+    <t>DailyVisitsBillsTitle,BillSubmissionTitle</t>
   </si>
 </sst>
 </file>
@@ -937,7 +941,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -1049,8 +1053,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1091,6 +1095,59 @@
       </c>
       <c r="E2" t="s">
         <v>129</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="4" width="30.7109375" customWidth="1"/>
+    <col min="5" max="5" width="51.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>

--- a/Customers/NextGen/TestSuite1Data.xlsx
+++ b/Customers/NextGen/TestSuite1Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="20040" windowHeight="6225" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="20040" windowHeight="6225" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TC01" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="127">
   <si>
     <t>password</t>
   </si>
@@ -347,9 +347,6 @@
     <t>Provides the payerclass and insurance group volume. This gives an insight to potential revenue stream along with insight to manage payer contracts.</t>
   </si>
   <si>
-    <t>Test</t>
-  </si>
-  <si>
     <t>ChangeStatus</t>
   </si>
   <si>
@@ -363,15 +360,6 @@
   </si>
   <si>
     <t>RunAsLabel</t>
-  </si>
-  <si>
-    <t>aaron.rucker@uthsc.edu</t>
-  </si>
-  <si>
-    <t>CWC\Admin</t>
-  </si>
-  <si>
-    <t>JORDAN\User</t>
   </si>
   <si>
     <t>NotAnumber</t>
@@ -840,7 +828,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E2"/>
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -856,10 +844,10 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -867,16 +855,16 @@
         <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>103</v>
+        <v>32</v>
       </c>
       <c r="C2">
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -909,7 +897,7 @@
         <v>33</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>36</v>
@@ -926,7 +914,7 @@
         <v>34</v>
       </c>
       <c r="D2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E2">
         <v>10</v>
@@ -941,8 +929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -963,13 +951,13 @@
         <v>33</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>36</v>
@@ -986,13 +974,13 @@
         <v>34</v>
       </c>
       <c r="D2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="G2">
         <v>10</v>
@@ -1077,7 +1065,7 @@
         <v>36</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1094,7 +1082,7 @@
         <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -1107,7 +1095,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1130,7 +1118,7 @@
         <v>36</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1138,7 +1126,7 @@
         <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>103</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
         <v>34</v>
@@ -1147,7 +1135,7 @@
         <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -1159,7 +1147,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -1167,7 +1155,7 @@
   <cols>
     <col min="1" max="1" width="20.140625" customWidth="1"/>
     <col min="2" max="2" width="13.140625" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" customWidth="1"/>
     <col min="5" max="5" width="25.85546875" customWidth="1"/>
     <col min="7" max="7" width="14.5703125" customWidth="1"/>
   </cols>
@@ -1186,7 +1174,7 @@
         <v>33</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>14</v>
@@ -1230,7 +1218,7 @@
         <v>34</v>
       </c>
       <c r="E2" t="s">
-        <v>109</v>
+        <v>34</v>
       </c>
       <c r="F2" t="s">
         <v>3</v>
@@ -1274,7 +1262,7 @@
         <v>35</v>
       </c>
       <c r="E3" t="s">
-        <v>110</v>
+        <v>35</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -1318,7 +1306,7 @@
         <v>37</v>
       </c>
       <c r="E4" t="s">
-        <v>111</v>
+        <v>37</v>
       </c>
       <c r="F4" t="s">
         <v>3</v>
@@ -1431,7 +1419,7 @@
         <v>38</v>
       </c>
       <c r="I2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="J2">
         <v>10</v>
@@ -1619,7 +1607,7 @@
         <v>58</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>59</v>
@@ -1637,7 +1625,7 @@
         <v>63</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="L2">
         <v>10</v>
@@ -1652,8 +1640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1722,25 +1710,25 @@
         <v>72</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>73</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="H2" t="s">
         <v>74</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="J2" t="s">
         <v>75</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="L2">
         <v>10</v>
@@ -1849,7 +1837,7 @@
         <v>92</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="H2" t="s">
         <v>93</v>
@@ -1895,7 +1883,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1924,7 +1912,7 @@
         <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>103</v>
+        <v>32</v>
       </c>
       <c r="C2">
         <v>10</v>

--- a/Customers/NextGen/TestSuite1Data.xlsx
+++ b/Customers/NextGen/TestSuite1Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="20040" windowHeight="6225" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="20040" windowHeight="6225" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="TC01" sheetId="2" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="TC12" sheetId="17" r:id="rId13"/>
     <sheet name="TC13" sheetId="18" r:id="rId14"/>
     <sheet name="TC14" sheetId="19" r:id="rId15"/>
+    <sheet name="TC15" sheetId="21" r:id="rId16"/>
   </sheets>
   <calcPr calcId="125725"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="135">
   <si>
     <t>password</t>
   </si>
@@ -417,6 +418,30 @@
   </si>
   <si>
     <t>DailyVisitsBillsTitle,BillSubmissionTitle</t>
+  </si>
+  <si>
+    <t>PopupTitle1</t>
+  </si>
+  <si>
+    <t>Popupmessage1</t>
+  </si>
+  <si>
+    <t>PopupTitle2</t>
+  </si>
+  <si>
+    <t>Popupmessage2</t>
+  </si>
+  <si>
+    <t>Password Reset</t>
+  </si>
+  <si>
+    <t>Password reset information has been sent to the associated email account if the credentials were found.</t>
+  </si>
+  <si>
+    <t>Password Reset Success</t>
+  </si>
+  <si>
+    <t>IPMN\Admin1</t>
   </si>
 </sst>
 </file>
@@ -473,12 +498,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1094,9 +1121,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1143,12 +1168,72 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="4" width="30.7109375" customWidth="1"/>
+    <col min="5" max="5" width="93.42578125" customWidth="1"/>
+    <col min="6" max="6" width="30.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
